--- a/data/processed/unmatched_columns/unmatched_民政职业大学.xlsx
+++ b/data/processed/unmatched_columns/unmatched_民政职业大学.xlsx
@@ -478,11 +478,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>3 月 8 日</t>
-        </is>
-      </c>
+      <c r="A3" t="inlineStr"/>
       <c r="B3" t="inlineStr">
         <is>
           <t>14:00—17:30</t>
